--- a/BRD_Output.xlsx
+++ b/BRD_Output.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="196">
   <si>
     <t>Tables Needed</t>
   </si>
   <si>
+    <t>customers</t>
+  </si>
+  <si>
     <t>orders</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>products</t>
   </si>
   <si>
     <t>order_items</t>
@@ -41,31 +44,205 @@
     <t>Columns Needed</t>
   </si>
   <si>
-    <t>o.order_id</t>
-  </si>
-  <si>
-    <t>o.order_date</t>
-  </si>
-  <si>
-    <t>c.customer_name</t>
-  </si>
-  <si>
-    <t>i.quantity</t>
-  </si>
-  <si>
-    <t>i.price</t>
-  </si>
-  <si>
-    <t>o.customer_id</t>
-  </si>
-  <si>
-    <t>c.customer_id</t>
-  </si>
-  <si>
-    <t>i.order_id</t>
-  </si>
-  <si>
-    <t>c.segment</t>
+    <t>customers.customer_id</t>
+  </si>
+  <si>
+    <t>customers.customer_name</t>
+  </si>
+  <si>
+    <t>customers.registration_date</t>
+  </si>
+  <si>
+    <t>customers.country</t>
+  </si>
+  <si>
+    <t>customers.segment</t>
+  </si>
+  <si>
+    <t>orders.order_id</t>
+  </si>
+  <si>
+    <t>orders.total_amount</t>
+  </si>
+  <si>
+    <t>orders.order_date</t>
+  </si>
+  <si>
+    <t>orders.order_status</t>
+  </si>
+  <si>
+    <t>orders.customer_id</t>
+  </si>
+  <si>
+    <t>products.product_id</t>
+  </si>
+  <si>
+    <t>products.product_name</t>
+  </si>
+  <si>
+    <t>products.category</t>
+  </si>
+  <si>
+    <t>products.subcategory</t>
+  </si>
+  <si>
+    <t>products.cost_price</t>
+  </si>
+  <si>
+    <t>order_items.order_id</t>
+  </si>
+  <si>
+    <t>order_items.product_id</t>
+  </si>
+  <si>
+    <t>order_items.quantity</t>
+  </si>
+  <si>
+    <t>order_items.unit_price</t>
+  </si>
+  <si>
+    <t>total_orders</t>
+  </si>
+  <si>
+    <t>lifetime_value</t>
+  </si>
+  <si>
+    <t>avg_order_value</t>
+  </si>
+  <si>
+    <t>first_order_date</t>
+  </si>
+  <si>
+    <t>last_order_date</t>
+  </si>
+  <si>
+    <t>customer_lifetime_days</t>
+  </si>
+  <si>
+    <t>active_months</t>
+  </si>
+  <si>
+    <t>times_ordered</t>
+  </si>
+  <si>
+    <t>total_quantity_sold</t>
+  </si>
+  <si>
+    <t>total_revenue</t>
+  </si>
+  <si>
+    <t>avg_revenue_per_order</t>
+  </si>
+  <si>
+    <t>total_profit</t>
+  </si>
+  <si>
+    <t>profit_margin_pct</t>
+  </si>
+  <si>
+    <t>category_orders</t>
+  </si>
+  <si>
+    <t>category_spend</t>
+  </si>
+  <si>
+    <t>category_rank</t>
+  </si>
+  <si>
+    <t>recency_days</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>recency_score</t>
+  </si>
+  <si>
+    <t>frequency_score</t>
+  </si>
+  <si>
+    <t>monetary_score</t>
+  </si>
+  <si>
+    <t>cohort_month</t>
+  </si>
+  <si>
+    <t>order_month</t>
+  </si>
+  <si>
+    <t>month_number</t>
+  </si>
+  <si>
+    <t>active_customers</t>
+  </si>
+  <si>
+    <t>cohort_revenue</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>monthly_revenue</t>
+  </si>
+  <si>
+    <t>monthly_orders</t>
+  </si>
+  <si>
+    <t>monthly_customers</t>
+  </si>
+  <si>
+    <t>three_month_avg_revenue</t>
+  </si>
+  <si>
+    <t>prev_month_revenue</t>
+  </si>
+  <si>
+    <t>month_over_month_growth_pct</t>
+  </si>
+  <si>
+    <t>rfm_total_score</t>
+  </si>
+  <si>
+    <t>customer_segment</t>
+  </si>
+  <si>
+    <t>preferred_category</t>
+  </si>
+  <si>
+    <t>preferred_category_spend</t>
+  </si>
+  <si>
+    <t>ltv_percentile</t>
+  </si>
+  <si>
+    <t>order_frequency_percentile</t>
+  </si>
+  <si>
+    <t>months_since_first_order</t>
+  </si>
+  <si>
+    <t>top_purchased_product</t>
+  </si>
+  <si>
+    <t>top_product_revenue</t>
+  </si>
+  <si>
+    <t>top_product_margin</t>
+  </si>
+  <si>
+    <t>current_month_revenue</t>
+  </si>
+  <si>
+    <t>avg_monthly_value</t>
+  </si>
+  <si>
+    <t>is_high_value_active</t>
+  </si>
+  <si>
+    <t>country_rank</t>
   </si>
   <si>
     <t>Left Table</t>
@@ -80,16 +257,61 @@
     <t>Condition</t>
   </si>
   <si>
+    <t>customer_metrics</t>
+  </si>
+  <si>
+    <t>rfm_analysis</t>
+  </si>
+  <si>
+    <t>customer_product_affinity</t>
+  </si>
+  <si>
+    <t>cohort_analysis</t>
+  </si>
+  <si>
+    <t>product_performance</t>
+  </si>
+  <si>
+    <t>revenue_trends</t>
+  </si>
+  <si>
     <t>INNER JOIN</t>
   </si>
   <si>
     <t>LEFT JOIN</t>
   </si>
   <si>
-    <t>o.customer_id = c.customer_id</t>
-  </si>
-  <si>
-    <t>o.order_id = i.order_id</t>
+    <t>c.customer_id = o.customer_id</t>
+  </si>
+  <si>
+    <t>p.product_id = oi.product_id</t>
+  </si>
+  <si>
+    <t>oi.order_id = o.order_id</t>
+  </si>
+  <si>
+    <t>o.order_id = oi.order_id</t>
+  </si>
+  <si>
+    <t>oi.product_id = p.product_id</t>
+  </si>
+  <si>
+    <t>cm.customer_id = o.customer_id</t>
+  </si>
+  <si>
+    <t>cm.customer_id = rfm.customer_id</t>
+  </si>
+  <si>
+    <t>cm.customer_id = cpa.customer_id AND cpa.category_rank = 1</t>
+  </si>
+  <si>
+    <t>DATE_TRUNC('month', cm.first_order_date) = ca.cohort_month AND DATE_TRUNC('month', cm.last_order_date) = ca.order_month</t>
+  </si>
+  <si>
+    <t>pp.product_id = (SELECT oi.product_id FROM order_items oi INNER JOIN orders o ON oi.order_id = o.order_id WHERE o.customer_id = cm.customer_id AND o.order_status IN ('completed', 'shipped') GROUP BY oi.product_id ORDER BY SUM(oi.quantity * oi.unit_price) DESC LIMIT 1)</t>
+  </si>
+  <si>
+    <t>DATE_TRUNC('month', cm.last_order_date) = rt.month</t>
   </si>
   <si>
     <t>Column</t>
@@ -101,25 +323,43 @@
     <t>Value</t>
   </si>
   <si>
-    <t>SUM(i.quantity * i.price)</t>
+    <t>customer_product_affinity.category_rank</t>
+  </si>
+  <si>
+    <t>customer_metrics.lifetime_value</t>
+  </si>
+  <si>
+    <t>rfm_analysis.recency_days</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
   <si>
     <t>&gt;=</t>
   </si>
   <si>
-    <t>LIKE</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
-    <t>'2023-01-01'</t>
-  </si>
-  <si>
-    <t>'ENTERPRISE'</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>IS NOT NULL</t>
+  </si>
+  <si>
+    <t>('completed', 'shipped')</t>
+  </si>
+  <si>
+    <t>DATEADD(year, -2, CURRENT_DATE)</t>
+  </si>
+  <si>
+    <t>DATEADD(year, -1, CURRENT_DATE)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>Output Column</t>
@@ -128,73 +368,250 @@
     <t>Expression</t>
   </si>
   <si>
+    <t>COUNT(DISTINCT o.order_id)</t>
+  </si>
+  <si>
+    <t>SUM(o.total_amount)</t>
+  </si>
+  <si>
+    <t>AVG(o.total_amount)</t>
+  </si>
+  <si>
+    <t>MIN(o.order_date)</t>
+  </si>
+  <si>
+    <t>MAX(o.order_date)</t>
+  </si>
+  <si>
+    <t>DATEDIFF(day, MIN(o.order_date), MAX(o.order_date))</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT EXTRACT(YEAR FROM o.order_date) || '-' || EXTRACT(MONTH FROM o.order_date))</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT oi.order_id)</t>
+  </si>
+  <si>
+    <t>SUM(oi.quantity)</t>
+  </si>
+  <si>
+    <t>SUM(oi.quantity * oi.unit_price)</t>
+  </si>
+  <si>
+    <t>AVG(oi.quantity * oi.unit_price)</t>
+  </si>
+  <si>
+    <t>SUM(oi.quantity * (oi.unit_price - p.cost_price))</t>
+  </si>
+  <si>
+    <t>CASE WHEN SUM(oi.quantity * oi.unit_price) = 0 THEN 0 ELSE (SUM(oi.quantity * (oi.unit_price - p.cost_price)) / SUM(oi.quantity * oi.unit_price)) * 100 END</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER() OVER (PARTITION BY o.customer_id ORDER BY SUM(oi.quantity * oi.unit_price) DESC)</t>
+  </si>
+  <si>
+    <t>DATEDIFF(day, MAX(order_date), CURRENT_DATE)</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT order_id)</t>
+  </si>
+  <si>
+    <t>SUM(total_amount)</t>
+  </si>
+  <si>
+    <t>NTILE(5) OVER (ORDER BY DATEDIFF(day, MAX(order_date), CURRENT_DATE) DESC)</t>
+  </si>
+  <si>
+    <t>NTILE(5) OVER (ORDER BY COUNT(DISTINCT order_id) ASC)</t>
+  </si>
+  <si>
+    <t>NTILE(5) OVER (ORDER BY SUM(total_amount) ASC)</t>
+  </si>
+  <si>
+    <t>DATE_TRUNC('month', cm.first_order_date)</t>
+  </si>
+  <si>
+    <t>DATE_TRUNC('month', o.order_date)</t>
+  </si>
+  <si>
+    <t>DATEDIFF(month, DATE_TRUNC('month', cm.first_order_date), DATE_TRUNC('month', o.order_date))</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT o.customer_id)</t>
+  </si>
+  <si>
+    <t>DATE_TRUNC('month', order_date)</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT customer_id)</t>
+  </si>
+  <si>
+    <t>AVG(SUM(total_amount)) OVER (ORDER BY DATE_TRUNC('month', order_date) ROWS BETWEEN 2 PRECEDING AND CURRENT ROW)</t>
+  </si>
+  <si>
+    <t>LAG(SUM(total_amount), 1) OVER (ORDER BY DATE_TRUNC('month', order_date))</t>
+  </si>
+  <si>
+    <t>CASE WHEN LAG(SUM(total_amount), 1) OVER (ORDER BY DATE_TRUNC('month', order_date)) = 0 THEN NULL ELSE ((SUM(total_amount) - LAG(SUM(total_amount), 1) OVER (ORDER BY DATE_TRUNC('month', order_date))) / LAG(SUM(total_amount), 1) OVER (ORDER BY DATE_TRUNC('month', order_date))) * 100 END</t>
+  </si>
+  <si>
+    <t>rfm.recency_score + rfm.frequency_score + rfm.monetary_score</t>
+  </si>
+  <si>
+    <t>CASE WHEN rfm.recency_score + rfm.frequency_score + rfm.monetary_score &gt;= 13 THEN 'Champion' WHEN rfm.recency_score + rfm.frequency_score + rfm.monetary_score &gt;= 10 THEN 'Loyal' WHEN rfm.recency_score &gt;= 4 AND rfm.frequency_score &lt;= 2 THEN 'New Customer' WHEN rfm.recency_score &lt;= 2 AND rfm.frequency_score &gt;= 4 THEN 'At Risk' WHEN rfm.recency_score &lt;= 2 AND rfm.frequency_score &lt;= 2 THEN 'Lost' ELSE 'Regular' END</t>
+  </si>
+  <si>
+    <t>PERCENT_RANK() OVER (ORDER BY cm.lifetime_value)</t>
+  </si>
+  <si>
+    <t>PERCENT_RANK() OVER (ORDER BY cm.total_orders)</t>
+  </si>
+  <si>
+    <t>CASE WHEN cm.customer_lifetime_days &gt; 0 THEN cm.lifetime_value / NULLIF(cm.customer_lifetime_days, 0) * 30 ELSE 0 END</t>
+  </si>
+  <si>
+    <t>CASE WHEN rfm.recency_days &lt;= 30 AND cm.lifetime_value &gt; (SELECT AVG(lifetime_value) FROM customer_metrics) THEN 1 ELSE 0 END</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER() OVER (PARTITION BY cm.country ORDER BY cm.lifetime_value DESC)</t>
+  </si>
+  <si>
+    <t>Depends On</t>
+  </si>
+  <si>
+    <t>first_order_date, last_order_date</t>
+  </si>
+  <si>
+    <t>order_items.quantity, order_items.unit_price</t>
+  </si>
+  <si>
+    <t>order_items.quantity, order_items.unit_price, products.cost_price</t>
+  </si>
+  <si>
+    <t>total_profit, total_revenue</t>
+  </si>
+  <si>
+    <t>orders.customer_id, category_spend</t>
+  </si>
+  <si>
+    <t>orders.order_date, CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>customer_metrics.first_order_date</t>
+  </si>
+  <si>
+    <t>cohort_month, order_month</t>
+  </si>
+  <si>
+    <t>monthly_revenue, prev_month_revenue</t>
+  </si>
+  <si>
+    <t>rfm.recency_score, rfm.frequency_score, rfm.monetary_score</t>
+  </si>
+  <si>
+    <t>rfm_total_score, rfm.recency_score, rfm.frequency_score</t>
+  </si>
+  <si>
+    <t>cm.lifetime_value</t>
+  </si>
+  <si>
+    <t>cm.total_orders</t>
+  </si>
+  <si>
+    <t>cm.customer_lifetime_days, cm.lifetime_value</t>
+  </si>
+  <si>
+    <t>rfm.recency_days, cm.lifetime_value, customer_metrics.lifetime_value</t>
+  </si>
+  <si>
+    <t>cm.country, cm.lifetime_value</t>
+  </si>
+  <si>
+    <t>Tables to Migrate</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>registration_date</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
     <t>total_amount</t>
   </si>
   <si>
-    <t>Depends On</t>
-  </si>
-  <si>
-    <t>i.quantity, i.price</t>
-  </si>
-  <si>
-    <t>Tables to Migrate</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
     <t>order_date</t>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>segment</t>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>cost_price</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>price</t>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
   </si>
   <si>
     <t>INT64</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>NUMERIC</t>
-  </si>
-  <si>
     <t>PK_FK Dependencies</t>
   </si>
   <si>
-    <t>orders.customer_id (FK) -&gt; customers.customer_id (PK)</t>
-  </si>
-  <si>
-    <t>orders.order_id (PK) -&gt; order_items.order_id (FK)</t>
+    <t>customers.customer_id -&gt; orders.customer_id</t>
+  </si>
+  <si>
+    <t>orders.order_id -&gt; order_items.order_id</t>
+  </si>
+  <si>
+    <t>products.product_id -&gt; order_items.product_id</t>
   </si>
   <si>
     <t>Lookup Tables</t>
   </si>
   <si>
     <t>Transformations</t>
-  </si>
-  <si>
-    <t>SUM(i.quantity * i.price) AS total_amount</t>
   </si>
 </sst>
 </file>
@@ -552,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +995,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +1015,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,12 +1043,212 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,52 +1266,342 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,16 +1619,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -717,24 +1639,150 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +1792,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,24 +1800,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -777,21 +1825,54 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -809,18 +1890,338 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,18 +2239,338 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -858,6 +2579,277 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -867,173 +2859,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
